--- a/upload/KE-HOACH-GIANG-DAY-QLTNMT-K42.xlsx
+++ b/upload/KE-HOACH-GIANG-DAY-QLTNMT-K42.xlsx
@@ -130,19 +130,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">HỌC KỲ I: ……08…….. TC/ĐVHT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Bắt buộc: ……08…….TC/ ĐVHT, Tự chọn:…0…… TC/ ĐVHT)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">HỌC KỲ II: ……11…….. TC/ĐVHT </t>
     </r>
     <r>
@@ -395,6 +382,19 @@
   </si>
   <si>
     <t>Ngành đào tạo: CNMay    Mã ngành: 6540204</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HỌC KỲ I: ……08…….. TC/ĐVHT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Bắt buộc: ……08…….TC/ ĐVHT, Tự chọn:…6…… TC/ ĐVHT)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -662,9 +662,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -674,41 +707,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J5"/>
+      <selection activeCell="A8" sqref="A8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1129,62 +1129,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="E1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="E2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="E2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="A5" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
@@ -1201,22 +1201,22 @@
       <c r="J6" s="41"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
+      <c r="A8" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:12" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1255,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="D11" s="13">
         <v>2</v>
@@ -1341,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>21</v>
@@ -1369,10 +1369,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="22" t="s">
@@ -1400,7 +1400,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="22" t="s">
@@ -1425,10 +1425,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="22" t="s">
@@ -1449,11 +1449,11 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
+      <c r="A18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="21">
         <v>2</v>
       </c>
@@ -1474,18 +1474,18 @@
     </row>
     <row r="19" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
+      <c r="A20" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="22" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -1524,10 +1524,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="D23" s="14">
         <v>2</v>
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>28</v>
@@ -1585,7 +1585,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
@@ -1610,10 +1610,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="D26" s="22">
         <v>2</v>
@@ -1640,10 +1640,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="D27" s="22">
         <v>2</v>
@@ -1698,7 +1698,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>24</v>
@@ -1726,10 +1726,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="22" t="s">
@@ -1751,7 +1751,7 @@
     </row>
     <row r="31" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
@@ -1775,18 +1775,18 @@
     </row>
     <row r="32" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
+      <c r="A33" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
     </row>
     <row r="35" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
@@ -1825,10 +1825,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="D36" s="14">
         <v>3</v>
@@ -1855,10 +1855,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="D37" s="22">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="D38" s="22">
         <v>3</v>
@@ -1915,10 +1915,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="D39" s="22">
         <v>2</v>
@@ -1945,10 +1945,10 @@
         <v>5</v>
       </c>
       <c r="B40" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="D40" s="22">
         <v>2</v>
@@ -1975,10 +1975,10 @@
         <v>6</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="D41" s="22">
         <v>3</v>
@@ -2005,10 +2005,10 @@
         <v>7</v>
       </c>
       <c r="B42" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="D42" s="22">
         <v>3</v>
@@ -2035,10 +2035,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="D43" s="22">
         <v>2</v>
@@ -2065,10 +2065,10 @@
         <v>9</v>
       </c>
       <c r="B44" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22" t="s">
@@ -2089,11 +2089,11 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
+      <c r="A45" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="22">
         <v>18</v>
       </c>
@@ -2161,18 +2161,18 @@
       <c r="J49" s="26"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
     </row>
     <row r="53" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
@@ -2211,10 +2211,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="D54" s="16">
         <v>3</v>
@@ -2241,10 +2241,10 @@
         <v>2</v>
       </c>
       <c r="B55" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="D55" s="20">
         <v>3</v>
@@ -2271,10 +2271,10 @@
         <v>3</v>
       </c>
       <c r="B56" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="D56" s="20">
         <v>3</v>
@@ -2301,10 +2301,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="D57" s="20">
         <v>3</v>
@@ -2331,10 +2331,10 @@
         <v>5</v>
       </c>
       <c r="B58" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="D58" s="20">
         <v>3</v>
@@ -2361,10 +2361,10 @@
         <v>6</v>
       </c>
       <c r="B59" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="D59" s="20">
         <v>2</v>
@@ -2391,10 +2391,10 @@
         <v>7</v>
       </c>
       <c r="B60" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="D60" s="20">
         <v>2</v>
@@ -2421,10 +2421,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="D61" s="20">
         <v>2</v>
@@ -2451,10 +2451,10 @@
         <v>9</v>
       </c>
       <c r="B62" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="D62" s="20">
         <v>3</v>
@@ -2481,10 +2481,10 @@
         <v>10</v>
       </c>
       <c r="B63" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>91</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="22" t="s">
@@ -2506,7 +2506,7 @@
     </row>
     <row r="64" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64" s="35"/>
       <c r="C64" s="36"/>
@@ -2577,18 +2577,18 @@
       <c r="J68" s="26"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
+      <c r="A70" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
     </row>
     <row r="72" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
@@ -2627,10 +2627,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="D73" s="14">
         <v>2</v>
@@ -2657,10 +2657,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>95</v>
       </c>
       <c r="D74" s="22">
         <v>1</v>
@@ -2687,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="B75" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>97</v>
       </c>
       <c r="D75" s="22">
         <v>3</v>
@@ -2717,10 +2717,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="D76" s="22">
         <v>3</v>
@@ -2747,10 +2747,10 @@
         <v>5</v>
       </c>
       <c r="B77" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="D77" s="20">
         <v>2</v>
@@ -2777,10 +2777,10 @@
         <v>6</v>
       </c>
       <c r="B78" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="D78" s="22">
         <v>2</v>
@@ -2807,10 +2807,10 @@
         <v>7</v>
       </c>
       <c r="B79" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="D79" s="20"/>
       <c r="E79" s="22" t="s">
@@ -2832,7 +2832,7 @@
     </row>
     <row r="80" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B80" s="35"/>
       <c r="C80" s="36"/>
@@ -2883,30 +2883,30 @@
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="37" t="s">
+      <c r="G83" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="45"/>
     </row>
     <row r="84" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30" t="s">
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30" t="s">
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="40"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
@@ -2931,11 +2931,11 @@
       <c r="J87" s="9"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -2957,12 +2957,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="A80:C80"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A1:C1"/>
@@ -2972,14 +2974,12 @@
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
